--- a/biology/Botanique/Églises_en_bois_du_sud_de_la_Petite_Pologne/Églises_en_bois_du_sud_de_la_Petite_Pologne.xlsx
+++ b/biology/Botanique/Églises_en_bois_du_sud_de_la_Petite_Pologne/Églises_en_bois_du_sud_de_la_Petite_Pologne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89glises_en_bois_du_sud_de_la_Petite_Pologne</t>
+          <t>Églises_en_bois_du_sud_de_la_Petite_Pologne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les églises en bois du sud de la Petite-Pologne sont situées dans les villages de Dębno, Binarowa, Blizne, Haczów, Lipnica Dolna et Sękowa. Elles utilisent la technique des rondins de bois disposés horizontalement et que l'on retrouve depuis le Moyen Âge en Europe de l'Est et du Nord. Elles sont inscrites sur la liste du patrimoine mondial de l'UNESCO depuis 2003.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89glises_en_bois_du_sud_de_la_Petite_Pologne</t>
+          <t>Églises_en_bois_du_sud_de_la_Petite_Pologne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Architecture</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces églises sont le produit de la rencontre de l'architecture catholique romaine avec celle de l'église orthodoxe de l'Est. Elles sont à la fois adaptées au climat local à l'extérieur (forte inclinaison des toits, par exemple) et richement décorées à l'intérieur. Les peintures murales en sont une des caractéristiques principales. De telles églises en bois, matériau localement abondant, sont en fait typiques de la chaîne des Carpates non seulement en Pologne mais aussi en Slovaquie, Ukraine et Roumanie, et ont également été inscrites, mais en ordre dispersé, au patrimoine mondial de l'UNESCO, en 1999 en Roumanie[1], en 2008 en Slovaquie[2] et en 2013 en Ukraine et Pologne orientale[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces églises sont le produit de la rencontre de l'architecture catholique romaine avec celle de l'église orthodoxe de l'Est. Elles sont à la fois adaptées au climat local à l'extérieur (forte inclinaison des toits, par exemple) et richement décorées à l'intérieur. Les peintures murales en sont une des caractéristiques principales. De telles églises en bois, matériau localement abondant, sont en fait typiques de la chaîne des Carpates non seulement en Pologne mais aussi en Slovaquie, Ukraine et Roumanie, et ont également été inscrites, mais en ordre dispersé, au patrimoine mondial de l'UNESCO, en 1999 en Roumanie, en 2008 en Slovaquie et en 2013 en Ukraine et Pologne orientale.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89glises_en_bois_du_sud_de_la_Petite_Pologne</t>
+          <t>Églises_en_bois_du_sud_de_la_Petite_Pologne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Sites inscrits par l'UNESCO</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les églises inscrites sont les suivantes :
 Binarowa : l'église Saint-Michel-Archange fondée autour de 1500. Ses intérieurs polychromes (des XVIe et XVIIe siècles) à l'arrière-plan de l'autel et les sculptures sur bois, parmi lesquelles on trouve une représentation de la Vierge Marie à l'enfant, datent d'environ 1430.
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89glises_en_bois_du_sud_de_la_Petite_Pologne</t>
+          <t>Églises_en_bois_du_sud_de_la_Petite_Pologne</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,7 +602,9 @@
           <t>Autres églises en bois de la région</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Église Saint-Michel-Archange, Bystre, Bieszczady
